--- a/DRE/cap08-BasesDeDatos/IPT_ACRM_BD2_Contacts_150522.xlsx
+++ b/DRE/cap08-BasesDeDatos/IPT_ACRM_BD2_Contacts_150522.xlsx
@@ -143,9 +143,6 @@
     <t>Si/No // Idiomas (ES, FR, IT, GE, EN) //  (conectado Modulo de campañas)</t>
   </si>
   <si>
-    <t>BD1 Companies [Company ID, Name]</t>
-  </si>
-  <si>
     <t>TB Languages [Alpha2]</t>
   </si>
   <si>
@@ -204,6 +201,9 @@
   <si>
     <t>TB Positions
 [Position]</t>
+  </si>
+  <si>
+    <t>BD1 Companies [Company ID + Name]</t>
   </si>
 </sst>
 </file>
@@ -701,8 +701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -747,7 +747,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>13</v>
@@ -760,7 +760,7 @@
         <v>34</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
@@ -768,7 +768,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>13</v>
@@ -781,10 +781,10 @@
         <v>34</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>12</v>
       </c>
@@ -795,7 +795,7 @@
         <v>14</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="12" t="s">
@@ -810,20 +810,20 @@
         <v>12</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
@@ -846,27 +846,27 @@
     <row r="7" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="12" t="s">
         <v>18</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>13</v>
@@ -877,7 +877,7 @@
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
       <c r="G8" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H8" s="17"/>
     </row>
@@ -947,7 +947,7 @@
     <row r="12" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>13</v>
@@ -1004,13 +1004,13 @@
         <v>12</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="12" t="s">
@@ -1023,20 +1023,20 @@
     <row r="16" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="18" t="s">
         <v>53</v>
-      </c>
-      <c r="G16" s="18" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1067,7 +1067,7 @@
         <v>14</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="13" t="s">
@@ -1077,7 +1077,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A19" s="16"/>
       <c r="B19" s="11" t="s">
         <v>33</v>
@@ -1086,7 +1086,7 @@
         <v>14</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="12" t="s">
